--- a/COVID NFLStats/FB/FB_aggregate.xlsx
+++ b/COVID NFLStats/FB/FB_aggregate.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -509,7 +509,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
